--- a/mi_session/mi-session.xlsx
+++ b/mi_session/mi-session.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2724654557695818/Desktop/Mdou Houdy bd-prog/Inf1093_300141639/mi_session/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="168" documentId="11_AD4D9D64A577C15A4A541889509A59C25BDEDD78" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26A44EFD-F1B5-484F-89E2-7AC1C1196C63}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Question 1" sheetId="3" r:id="rId1"/>
+    <sheet name="Question 2" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,12 +25,75 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
+  <si>
+    <t>Itération</t>
+  </si>
+  <si>
+    <t>[(Antony, 27)]</t>
+  </si>
+  <si>
+    <t>[(Antony, 27), (Lilian, 27)]</t>
+  </si>
+  <si>
+    <t>[(Antony, 27), (Lilian, 27), (Tity, 31)]</t>
+  </si>
+  <si>
+    <t>[(Antony, 27), (Lilian, 27), (Tity, 31), (Calvin, 39)]</t>
+  </si>
+  <si>
+    <t>[(Antony, 27), (Lilian, 27), (Tity, 31), (Calvin, 39), (Ryan, 43)]</t>
+  </si>
+  <si>
+    <t>[(Antony, 27), (Lilian, 27), (Tity, 31), (Calvin, 39), (Ryan, 43), (Viny, 34)]</t>
+  </si>
+  <si>
+    <t>Evolution de la liste</t>
+  </si>
+  <si>
+    <t>(Tity, 31)</t>
+  </si>
+  <si>
+    <t>(Ryan, 43)</t>
+  </si>
+  <si>
+    <t>(Viny, 34)</t>
+  </si>
+  <si>
+    <t>(Antony, 27)</t>
+  </si>
+  <si>
+    <t>(Calvin, 39)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Lilian, 27) </t>
+  </si>
+  <si>
+    <t>Itération num</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evolution de la liste </t>
+  </si>
+  <si>
+    <t>[(Viny, 34), (Ryan, 43), (Tity, 31), Antony, 27), (Calvin, 39), (Lilian, 27)]</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -49,8 +119,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +404,255 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB66CFC-183B-4DDA-8D06-95AC3BBF4E2D}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="72.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/mi_session/mi-session.xlsx
+++ b/mi_session/mi-session.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2724654557695818/Desktop/Mdou Houdy bd-prog/Inf1093_300141639/mi_session/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="168" documentId="11_AD4D9D64A577C15A4A541889509A59C25BDEDD78" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26A44EFD-F1B5-484F-89E2-7AC1C1196C63}"/>
+  <xr:revisionPtr revIDLastSave="181" documentId="11_AD4D9D64A577C15A4A541889509A59C25BDEDD78" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{948C3EF3-EC18-49BC-A534-C57040E4AC75}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Question 1" sheetId="3" r:id="rId1"/>
@@ -34,21 +34,6 @@
     <t>[(Antony, 27)]</t>
   </si>
   <si>
-    <t>[(Antony, 27), (Lilian, 27)]</t>
-  </si>
-  <si>
-    <t>[(Antony, 27), (Lilian, 27), (Tity, 31)]</t>
-  </si>
-  <si>
-    <t>[(Antony, 27), (Lilian, 27), (Tity, 31), (Calvin, 39)]</t>
-  </si>
-  <si>
-    <t>[(Antony, 27), (Lilian, 27), (Tity, 31), (Calvin, 39), (Ryan, 43)]</t>
-  </si>
-  <si>
-    <t>[(Antony, 27), (Lilian, 27), (Tity, 31), (Calvin, 39), (Ryan, 43), (Viny, 34)]</t>
-  </si>
-  <si>
     <t>Evolution de la liste</t>
   </si>
   <si>
@@ -77,6 +62,21 @@
   </si>
   <si>
     <t>[(Viny, 34), (Ryan, 43), (Tity, 31), Antony, 27), (Calvin, 39), (Lilian, 27)]</t>
+  </si>
+  <si>
+    <t>[(Antony, 27), (Calvin, 39), (Lilian, 27)]</t>
+  </si>
+  <si>
+    <t>[(Antony, 27),  (Calvin, 39), (Lilian, 27),  (Ryan, 43)]</t>
+  </si>
+  <si>
+    <t>[(Antony, 27), (Calvin, 39), (Lilian, 27),  (Ryan, 43), (Tity, 31),]</t>
+  </si>
+  <si>
+    <t>[(Antony, 27), (Calvin, 39), (Lilian, 27),  (Ryan, 43), (Tity, 31), (Viny, 34)]</t>
+  </si>
+  <si>
+    <t>[(Antony, 27), Calvin, 39)]</t>
   </si>
 </sst>
 </file>
@@ -140,6 +140,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -407,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB66CFC-183B-4DDA-8D06-95AC3BBF4E2D}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,7 +425,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -430,7 +434,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -448,7 +452,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -457,7 +461,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -466,7 +470,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -475,7 +479,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -484,7 +488,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -497,7 +501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -513,10 +517,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -529,22 +533,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -552,22 +556,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -575,22 +579,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -598,22 +602,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -621,22 +625,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
